--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -449,40 +449,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>475.22153452397</v>
+        <v>47.2333264089576</v>
       </c>
       <c r="C2" t="n">
-        <v>482.323020586394</v>
+        <v>47.9735987698201</v>
       </c>
       <c r="D2" t="n">
-        <v>480.218516468669</v>
+        <v>47.3399172155425</v>
       </c>
       <c r="E2" t="n">
-        <v>462.872769563977</v>
+        <v>46.4890150479864</v>
       </c>
       <c r="F2" t="n">
-        <v>488.145315803894</v>
+        <v>48.7675625363025</v>
       </c>
       <c r="G2" t="n">
-        <v>499.052899534001</v>
+        <v>49.9338871707625</v>
       </c>
       <c r="H2" t="n">
-        <v>492.375891849056</v>
+        <v>48.9517513895501</v>
       </c>
       <c r="I2" t="n">
-        <v>487.796413601887</v>
+        <v>48.4110945657366</v>
       </c>
       <c r="J2" t="n">
-        <v>474.926481030152</v>
+        <v>44.2448880657927</v>
       </c>
       <c r="K2" t="n">
-        <v>468.392526308772</v>
+        <v>46.8652884975425</v>
       </c>
       <c r="L2" t="n">
-        <v>495.769791440035</v>
+        <v>49.5632479132667</v>
       </c>
       <c r="M2" t="n">
-        <v>468.008489180648</v>
+        <v>46.3273227609119</v>
       </c>
     </row>
     <row r="3">
@@ -490,40 +490,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>178.653964187143</v>
+        <v>17.6191419779613</v>
       </c>
       <c r="C3" t="n">
-        <v>176.27139014963</v>
+        <v>17.7178660540672</v>
       </c>
       <c r="D3" t="n">
-        <v>184.671696070935</v>
+        <v>18.4829667465005</v>
       </c>
       <c r="E3" t="n">
-        <v>175.001808873652</v>
+        <v>17.3618908563652</v>
       </c>
       <c r="F3" t="n">
-        <v>170.410484643851</v>
+        <v>17.1293448425977</v>
       </c>
       <c r="G3" t="n">
-        <v>169.203389313927</v>
+        <v>16.8688117343447</v>
       </c>
       <c r="H3" t="n">
-        <v>186.183565408518</v>
+        <v>18.3875254126745</v>
       </c>
       <c r="I3" t="n">
-        <v>172.687448053615</v>
+        <v>17.8510862687282</v>
       </c>
       <c r="J3" t="n">
-        <v>168.526022750784</v>
+        <v>18.4506168051378</v>
       </c>
       <c r="K3" t="n">
-        <v>176.716683060518</v>
+        <v>17.6666333170005</v>
       </c>
       <c r="L3" t="n">
-        <v>175.954605693888</v>
+        <v>17.5427065444433</v>
       </c>
       <c r="M3" t="n">
-        <v>182.374392801431</v>
+        <v>17.4943610476321</v>
       </c>
     </row>
     <row r="4">
@@ -531,40 +531,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>4.53552097583752</v>
+        <v>4.64648700169028</v>
       </c>
       <c r="C4" t="n">
-        <v>4.77565173968108</v>
+        <v>4.77257724613833</v>
       </c>
       <c r="D4" t="n">
-        <v>4.55564909729107</v>
+        <v>4.59712596556425</v>
       </c>
       <c r="E4" t="n">
-        <v>4.59930399616299</v>
+        <v>4.59143676417656</v>
       </c>
       <c r="F4" t="n">
-        <v>5.13062900487913</v>
+        <v>5.15825115297517</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9259234588677</v>
+        <v>4.91983256626391</v>
       </c>
       <c r="H4" t="n">
-        <v>4.98254097628107</v>
+        <v>5.06238029350797</v>
       </c>
       <c r="I4" t="n">
-        <v>4.70475349002965</v>
+        <v>4.59180691297756</v>
       </c>
       <c r="J4" t="n">
-        <v>4.40088691978729</v>
+        <v>4.27245749084739</v>
       </c>
       <c r="K4" t="n">
-        <v>4.56013160727145</v>
+        <v>4.55446282545926</v>
       </c>
       <c r="L4" t="n">
-        <v>4.94503160600655</v>
+        <v>4.9360230524151</v>
       </c>
       <c r="M4" t="n">
-        <v>4.21584505213541</v>
+        <v>4.51327765327561</v>
       </c>
     </row>
     <row r="5">
@@ -572,40 +572,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2826.69696940897</v>
+        <v>2874.70704401102</v>
       </c>
       <c r="C5" t="n">
-        <v>3021.74724505647</v>
+        <v>3002.84703162119</v>
       </c>
       <c r="D5" t="n">
-        <v>2837.05404108284</v>
+        <v>2830.60494061809</v>
       </c>
       <c r="E5" t="n">
-        <v>2882.88112980557</v>
+        <v>2889.9930772714</v>
       </c>
       <c r="F5" t="n">
-        <v>3247.9466121685</v>
+        <v>3245.51425282898</v>
       </c>
       <c r="G5" t="n">
-        <v>3247.46815285812</v>
+        <v>3245.40613633103</v>
       </c>
       <c r="H5" t="n">
-        <v>3138.91549147665</v>
+        <v>3171.62332252724</v>
       </c>
       <c r="I5" t="n">
-        <v>3002.17288074281</v>
+        <v>2889.48176826269</v>
       </c>
       <c r="J5" t="n">
-        <v>2696.04278290467</v>
+        <v>2565.223705959</v>
       </c>
       <c r="K5" t="n">
-        <v>2807.60718012262</v>
+        <v>2805.43855947385</v>
       </c>
       <c r="L5" t="n">
-        <v>3229.17719684011</v>
+        <v>3234.27329294794</v>
       </c>
       <c r="M5" t="n">
-        <v>2576.05063912268</v>
+        <v>2724.08619162082</v>
       </c>
     </row>
     <row r="6">
@@ -613,40 +613,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>4.92221716729616</v>
+        <v>5.00593624462498</v>
       </c>
       <c r="C6" t="n">
-        <v>5.43744985874956</v>
+        <v>5.38166340540027</v>
       </c>
       <c r="D6" t="n">
-        <v>5.08505780066342</v>
+        <v>4.99316242689823</v>
       </c>
       <c r="E6" t="n">
-        <v>5.14322900854235</v>
+        <v>5.15661027480729</v>
       </c>
       <c r="F6" t="n">
-        <v>5.79797331507377</v>
+        <v>5.8161647646613</v>
       </c>
       <c r="G6" t="n">
-        <v>6.05809722173369</v>
+        <v>6.05807216515456</v>
       </c>
       <c r="H6" t="n">
-        <v>5.62293067109412</v>
+        <v>5.64600957363157</v>
       </c>
       <c r="I6" t="n">
-        <v>5.41289632945561</v>
+        <v>5.17972591242548</v>
       </c>
       <c r="J6" t="n">
-        <v>4.87044061637891</v>
+        <v>4.56415812082678</v>
       </c>
       <c r="K6" t="n">
-        <v>4.69701512196607</v>
+        <v>4.69468665966866</v>
       </c>
       <c r="L6" t="n">
-        <v>5.75266518772006</v>
+        <v>5.74870737990671</v>
       </c>
       <c r="M6" t="n">
-        <v>4.3498736287734</v>
+        <v>4.63463175337331</v>
       </c>
     </row>
     <row r="7">
@@ -654,40 +654,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.549832415520678</v>
+        <v>0.555678857002103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.588664950982729</v>
+        <v>0.582680823476166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.531607230355792</v>
+        <v>0.534310477367437</v>
       </c>
       <c r="E7" t="n">
-        <v>0.576740645215095</v>
+        <v>0.566366271051214</v>
       </c>
       <c r="F7" t="n">
-        <v>0.625557231509115</v>
+        <v>0.630292178228432</v>
       </c>
       <c r="G7" t="n">
-        <v>0.584652389324193</v>
+        <v>0.579119797953457</v>
       </c>
       <c r="H7" t="n">
-        <v>0.638545868574395</v>
+        <v>0.636253390139554</v>
       </c>
       <c r="I7" t="n">
-        <v>0.592430568863159</v>
+        <v>0.575805236271892</v>
       </c>
       <c r="J7" t="n">
-        <v>0.591791421300231</v>
+        <v>0.546044920888782</v>
       </c>
       <c r="K7" t="n">
-        <v>0.397562880319982</v>
+        <v>0.396540192224612</v>
       </c>
       <c r="L7" t="n">
-        <v>0.676949079861608</v>
+        <v>0.675057848480665</v>
       </c>
       <c r="M7" t="n">
-        <v>0.554544892152457</v>
+        <v>0.577297476120132</v>
       </c>
     </row>
     <row r="8">
@@ -695,40 +695,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.434029338563607</v>
+        <v>0.431817410122736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.394344757248325</v>
+        <v>0.400199820161423</v>
       </c>
       <c r="D8" t="n">
-        <v>0.438599553738524</v>
+        <v>0.437244089313782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.416140992981393</v>
+        <v>0.422570612391903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.349514822104311</v>
+        <v>0.349231881276989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.403663170528434</v>
+        <v>0.409284709305281</v>
       </c>
       <c r="H8" t="n">
-        <v>0.342516016144626</v>
+        <v>0.343933469344262</v>
       </c>
       <c r="I8" t="n">
-        <v>0.397139936805047</v>
+        <v>0.413955392086554</v>
       </c>
       <c r="J8" t="n">
-        <v>0.386196465257794</v>
+        <v>0.426439453780999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.592098936311245</v>
+        <v>0.59319073869808</v>
       </c>
       <c r="L8" t="n">
-        <v>0.32322798021118</v>
+        <v>0.324879304306751</v>
       </c>
       <c r="M8" t="n">
-        <v>0.426551576156908</v>
+        <v>0.413482914743327</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -53,19 +53,19 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">custom_redistr_winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_redistr_losers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_redistr_degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_redistr_income_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom_redistr_transfer</t>
+    <t xml:space="preserve">Preferred share of winners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of losers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred degree of redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied minimum income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied transfer (in % of world income)</t>
   </si>
   <si>
     <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
@@ -449,40 +449,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>47.2333264089576</v>
+        <v>47.3766926551491</v>
       </c>
       <c r="C2" t="n">
-        <v>47.9735987698201</v>
+        <v>47.8950716257654</v>
       </c>
       <c r="D2" t="n">
         <v>47.3399172155425</v>
       </c>
       <c r="E2" t="n">
-        <v>46.4890150479864</v>
+        <v>46.2527184424661</v>
       </c>
       <c r="F2" t="n">
-        <v>48.7675625363025</v>
+        <v>48.6664577469501</v>
       </c>
       <c r="G2" t="n">
         <v>49.9338871707625</v>
       </c>
       <c r="H2" t="n">
-        <v>48.9517513895501</v>
+        <v>48.854345233411</v>
       </c>
       <c r="I2" t="n">
-        <v>48.4110945657366</v>
+        <v>48.376458650109</v>
       </c>
       <c r="J2" t="n">
-        <v>44.2448880657927</v>
+        <v>44.6752992863916</v>
       </c>
       <c r="K2" t="n">
         <v>46.8652884975425</v>
       </c>
       <c r="L2" t="n">
-        <v>49.5632479132667</v>
+        <v>49.8384797332685</v>
       </c>
       <c r="M2" t="n">
-        <v>46.3273227609119</v>
+        <v>46.7697705695816</v>
       </c>
     </row>
     <row r="3">
@@ -490,40 +490,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6191419779613</v>
+        <v>17.7499398734608</v>
       </c>
       <c r="C3" t="n">
-        <v>17.7178660540672</v>
+        <v>17.8182043484875</v>
       </c>
       <c r="D3" t="n">
         <v>18.4829667465005</v>
       </c>
       <c r="E3" t="n">
-        <v>17.3618908563652</v>
+        <v>17.7989992345778</v>
       </c>
       <c r="F3" t="n">
-        <v>17.1293448425977</v>
+        <v>17.2232489267789</v>
       </c>
       <c r="G3" t="n">
         <v>16.8688117343447</v>
       </c>
       <c r="H3" t="n">
-        <v>18.3875254126745</v>
+        <v>18.5211044224375</v>
       </c>
       <c r="I3" t="n">
-        <v>17.8510862687282</v>
+        <v>17.6676612649794</v>
       </c>
       <c r="J3" t="n">
-        <v>18.4506168051378</v>
+        <v>18.5043124927994</v>
       </c>
       <c r="K3" t="n">
         <v>17.6666333170005</v>
       </c>
       <c r="L3" t="n">
-        <v>17.5427065444433</v>
+        <v>17.4309175273669</v>
       </c>
       <c r="M3" t="n">
-        <v>17.4943610476321</v>
+        <v>17.7332113385154</v>
       </c>
     </row>
     <row r="4">
@@ -531,40 +531,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>4.64648700169028</v>
+        <v>4.66328252218349</v>
       </c>
       <c r="C4" t="n">
-        <v>4.77257724613833</v>
+        <v>4.79167861593244</v>
       </c>
       <c r="D4" t="n">
         <v>4.59712596556425</v>
       </c>
       <c r="E4" t="n">
-        <v>4.59143676417656</v>
+        <v>4.60542381071992</v>
       </c>
       <c r="F4" t="n">
-        <v>5.15825115297517</v>
+        <v>5.15558292166329</v>
       </c>
       <c r="G4" t="n">
         <v>4.91983256626391</v>
       </c>
       <c r="H4" t="n">
-        <v>5.06238029350797</v>
+        <v>5.0454388000938</v>
       </c>
       <c r="I4" t="n">
-        <v>4.59180691297756</v>
+        <v>4.69101516681557</v>
       </c>
       <c r="J4" t="n">
-        <v>4.27245749084739</v>
+        <v>4.32085104887429</v>
       </c>
       <c r="K4" t="n">
         <v>4.55446282545926</v>
       </c>
       <c r="L4" t="n">
-        <v>4.9360230524151</v>
+        <v>4.95538856601748</v>
       </c>
       <c r="M4" t="n">
-        <v>4.51327765327561</v>
+        <v>4.53398909797246</v>
       </c>
     </row>
     <row r="5">
@@ -572,40 +572,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2874.70704401102</v>
+        <v>2916.69157969768</v>
       </c>
       <c r="C5" t="n">
-        <v>3002.84703162119</v>
+        <v>3013.70192114343</v>
       </c>
       <c r="D5" t="n">
-        <v>2830.60494061809</v>
+        <v>2830.60494061808</v>
       </c>
       <c r="E5" t="n">
-        <v>2889.9930772714</v>
+        <v>2891.33844398474</v>
       </c>
       <c r="F5" t="n">
-        <v>3245.51425282898</v>
+        <v>3259.54044711991</v>
       </c>
       <c r="G5" t="n">
         <v>3245.40613633103</v>
       </c>
       <c r="H5" t="n">
-        <v>3171.62332252724</v>
+        <v>3166.75074655609</v>
       </c>
       <c r="I5" t="n">
-        <v>2889.48176826269</v>
+        <v>2934.78196648777</v>
       </c>
       <c r="J5" t="n">
-        <v>2565.223705959</v>
+        <v>2603.09872742232</v>
       </c>
       <c r="K5" t="n">
         <v>2805.43855947385</v>
       </c>
       <c r="L5" t="n">
-        <v>3234.27329294794</v>
+        <v>3269.66419485418</v>
       </c>
       <c r="M5" t="n">
-        <v>2724.08619162082</v>
+        <v>2818.80286312606</v>
       </c>
     </row>
     <row r="6">
@@ -613,40 +613,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5.00593624462498</v>
+        <v>5.14320088394063</v>
       </c>
       <c r="C6" t="n">
-        <v>5.38166340540027</v>
+        <v>5.39975144533437</v>
       </c>
       <c r="D6" t="n">
         <v>4.99316242689823</v>
       </c>
       <c r="E6" t="n">
-        <v>5.15661027480729</v>
+        <v>5.13793534008123</v>
       </c>
       <c r="F6" t="n">
-        <v>5.8161647646613</v>
+        <v>5.90369783761418</v>
       </c>
       <c r="G6" t="n">
         <v>6.05807216515456</v>
       </c>
       <c r="H6" t="n">
-        <v>5.64600957363157</v>
+        <v>5.63552870729822</v>
       </c>
       <c r="I6" t="n">
-        <v>5.17972591242548</v>
+        <v>5.22784861379415</v>
       </c>
       <c r="J6" t="n">
-        <v>4.56415812082678</v>
+        <v>4.60308789814359</v>
       </c>
       <c r="K6" t="n">
         <v>4.69468665966866</v>
       </c>
       <c r="L6" t="n">
-        <v>5.74870737990671</v>
+        <v>5.86672750314487</v>
       </c>
       <c r="M6" t="n">
-        <v>4.63463175337331</v>
+        <v>4.96395633987067</v>
       </c>
     </row>
     <row r="7">
@@ -654,40 +654,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.555678857002103</v>
+        <v>0.556862301345772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.582680823476166</v>
+        <v>0.58103898576041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.534310477367437</v>
+        <v>0.534310477367436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.566366271051214</v>
+        <v>0.558168699391735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.630292178228432</v>
+        <v>0.633876504878303</v>
       </c>
       <c r="G7" t="n">
         <v>0.579119797953457</v>
       </c>
       <c r="H7" t="n">
-        <v>0.636253390139554</v>
+        <v>0.624925865768044</v>
       </c>
       <c r="I7" t="n">
-        <v>0.575805236271892</v>
+        <v>0.584054744303498</v>
       </c>
       <c r="J7" t="n">
-        <v>0.546044920888782</v>
+        <v>0.531024860561446</v>
       </c>
       <c r="K7" t="n">
         <v>0.396540192224612</v>
       </c>
       <c r="L7" t="n">
-        <v>0.675057848480665</v>
+        <v>0.673076664181392</v>
       </c>
       <c r="M7" t="n">
-        <v>0.577297476120132</v>
+        <v>0.58245381128998</v>
       </c>
     </row>
     <row r="8">
@@ -695,40 +695,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.431817410122736</v>
+        <v>0.431239978596012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.400199820161423</v>
+        <v>0.402407038168094</v>
       </c>
       <c r="D8" t="n">
         <v>0.437244089313782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.422570612391903</v>
+        <v>0.431491692867765</v>
       </c>
       <c r="F8" t="n">
-        <v>0.349231881276989</v>
+        <v>0.346666410324087</v>
       </c>
       <c r="G8" t="n">
         <v>0.409284709305281</v>
       </c>
       <c r="H8" t="n">
-        <v>0.343933469344262</v>
+        <v>0.358241310645866</v>
       </c>
       <c r="I8" t="n">
-        <v>0.413955392086554</v>
+        <v>0.404790381643791</v>
       </c>
       <c r="J8" t="n">
-        <v>0.426439453780999</v>
+        <v>0.441873182615463</v>
       </c>
       <c r="K8" t="n">
         <v>0.59319073869808</v>
       </c>
       <c r="L8" t="n">
-        <v>0.324879304306751</v>
+        <v>0.326752007969194</v>
       </c>
       <c r="M8" t="n">
-        <v>0.413482914743327</v>
+        <v>0.409281991569508</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -449,40 +449,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>47.3766926551491</v>
+        <v>47.3738987802139</v>
       </c>
       <c r="C2" t="n">
-        <v>47.8950716257654</v>
+        <v>47.9271661362879</v>
       </c>
       <c r="D2" t="n">
-        <v>47.3399172155425</v>
+        <v>47.235101025608</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2527184424661</v>
+        <v>46.5056769193759</v>
       </c>
       <c r="F2" t="n">
-        <v>48.6664577469501</v>
+        <v>48.7201520505185</v>
       </c>
       <c r="G2" t="n">
-        <v>49.9338871707625</v>
+        <v>49.4760424962276</v>
       </c>
       <c r="H2" t="n">
-        <v>48.854345233411</v>
+        <v>49.0283360313302</v>
       </c>
       <c r="I2" t="n">
-        <v>48.376458650109</v>
+        <v>48.4130854078035</v>
       </c>
       <c r="J2" t="n">
-        <v>44.6752992863916</v>
+        <v>44.7857599076557</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8652884975425</v>
+        <v>46.7817073785458</v>
       </c>
       <c r="L2" t="n">
-        <v>49.8384797332685</v>
+        <v>49.8918139075144</v>
       </c>
       <c r="M2" t="n">
-        <v>46.7697705695816</v>
+        <v>46.7542391167642</v>
       </c>
     </row>
     <row r="3">
@@ -490,40 +490,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7499398734608</v>
+        <v>17.7284309346652</v>
       </c>
       <c r="C3" t="n">
-        <v>17.8182043484875</v>
+        <v>17.6757157738403</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4829667465005</v>
+        <v>18.4467406250294</v>
       </c>
       <c r="E3" t="n">
-        <v>17.7989992345778</v>
+        <v>17.483715865681</v>
       </c>
       <c r="F3" t="n">
-        <v>17.2232489267789</v>
+        <v>17.2320852638926</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8688117343447</v>
+        <v>16.754096665448</v>
       </c>
       <c r="H3" t="n">
-        <v>18.5211044224375</v>
+        <v>18.4623046745572</v>
       </c>
       <c r="I3" t="n">
-        <v>17.6676612649794</v>
+        <v>17.4189241105924</v>
       </c>
       <c r="J3" t="n">
-        <v>18.5043124927994</v>
+        <v>18.3851242687856</v>
       </c>
       <c r="K3" t="n">
-        <v>17.6666333170005</v>
+        <v>17.7384550005227</v>
       </c>
       <c r="L3" t="n">
-        <v>17.4309175273669</v>
+        <v>17.4538497656465</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7332113385154</v>
+        <v>17.8088827749863</v>
       </c>
     </row>
     <row r="4">
@@ -531,40 +531,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>4.66328252218349</v>
+        <v>4.66215828721021</v>
       </c>
       <c r="C4" t="n">
-        <v>4.79167861593244</v>
+        <v>4.81863675290261</v>
       </c>
       <c r="D4" t="n">
-        <v>4.59712596556425</v>
+        <v>4.62639569404863</v>
       </c>
       <c r="E4" t="n">
-        <v>4.60542381071992</v>
+        <v>4.64029111788804</v>
       </c>
       <c r="F4" t="n">
-        <v>5.15558292166329</v>
+        <v>5.15669116783075</v>
       </c>
       <c r="G4" t="n">
-        <v>4.91983256626391</v>
+        <v>4.91824763267677</v>
       </c>
       <c r="H4" t="n">
-        <v>5.0454388000938</v>
+        <v>5.02493311213579</v>
       </c>
       <c r="I4" t="n">
-        <v>4.69101516681557</v>
+        <v>4.77084250692855</v>
       </c>
       <c r="J4" t="n">
-        <v>4.32085104887429</v>
+        <v>4.42395634859103</v>
       </c>
       <c r="K4" t="n">
-        <v>4.55446282545926</v>
+        <v>4.54104222019968</v>
       </c>
       <c r="L4" t="n">
-        <v>4.95538856601748</v>
+        <v>4.98006182286059</v>
       </c>
       <c r="M4" t="n">
-        <v>4.53398909797246</v>
+        <v>4.50342546995902</v>
       </c>
     </row>
     <row r="5">
@@ -572,40 +572,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2916.69157969768</v>
+        <v>2904.13174396868</v>
       </c>
       <c r="C5" t="n">
-        <v>3013.70192114343</v>
+        <v>3013.99648441846</v>
       </c>
       <c r="D5" t="n">
-        <v>2830.60494061808</v>
+        <v>2856.27218254474</v>
       </c>
       <c r="E5" t="n">
-        <v>2891.33844398474</v>
+        <v>2866.37646927345</v>
       </c>
       <c r="F5" t="n">
-        <v>3259.54044711991</v>
+        <v>3268.67955624125</v>
       </c>
       <c r="G5" t="n">
-        <v>3245.40613633103</v>
+        <v>3174.89746134272</v>
       </c>
       <c r="H5" t="n">
-        <v>3166.75074655609</v>
+        <v>3168.21066966258</v>
       </c>
       <c r="I5" t="n">
-        <v>2934.78196648777</v>
+        <v>2966.48272925279</v>
       </c>
       <c r="J5" t="n">
-        <v>2603.09872742232</v>
+        <v>2660.91125126678</v>
       </c>
       <c r="K5" t="n">
-        <v>2805.43855947385</v>
+        <v>2791.36080801827</v>
       </c>
       <c r="L5" t="n">
-        <v>3269.66419485418</v>
+        <v>3291.56572730893</v>
       </c>
       <c r="M5" t="n">
-        <v>2818.80286312606</v>
+        <v>2789.12603881073</v>
       </c>
     </row>
     <row r="6">
@@ -613,40 +613,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5.14320088394063</v>
+        <v>5.11274339194611</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39975144533437</v>
+        <v>5.39514273808263</v>
       </c>
       <c r="D6" t="n">
-        <v>4.99316242689823</v>
+        <v>5.0147638962913</v>
       </c>
       <c r="E6" t="n">
-        <v>5.13793534008123</v>
+        <v>5.10885958685904</v>
       </c>
       <c r="F6" t="n">
-        <v>5.90369783761418</v>
+        <v>5.93329114050014</v>
       </c>
       <c r="G6" t="n">
-        <v>6.05807216515456</v>
+        <v>5.86127261939289</v>
       </c>
       <c r="H6" t="n">
-        <v>5.63552870729822</v>
+        <v>5.65083244023413</v>
       </c>
       <c r="I6" t="n">
-        <v>5.22784861379415</v>
+        <v>5.28587527204688</v>
       </c>
       <c r="J6" t="n">
-        <v>4.60308789814359</v>
+        <v>4.66029346746541</v>
       </c>
       <c r="K6" t="n">
-        <v>4.69468665966866</v>
+        <v>4.6584932524887</v>
       </c>
       <c r="L6" t="n">
-        <v>5.86672750314487</v>
+        <v>5.91408224230056</v>
       </c>
       <c r="M6" t="n">
-        <v>4.96395633987067</v>
+        <v>4.89938812724382</v>
       </c>
     </row>
     <row r="7">
@@ -654,40 +654,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.556862301345772</v>
+        <v>0.557747404615879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58103898576041</v>
+        <v>0.581924165984681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.534310477367436</v>
+        <v>0.528351073871356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.558168699391735</v>
+        <v>0.568251340340844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.633876504878303</v>
+        <v>0.633294813075585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.579119797953457</v>
+        <v>0.56683869430922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.624925865768044</v>
+        <v>0.627561397537583</v>
       </c>
       <c r="I7" t="n">
-        <v>0.584054744303498</v>
+        <v>0.586565171659253</v>
       </c>
       <c r="J7" t="n">
-        <v>0.531024860561446</v>
+        <v>0.541107445542664</v>
       </c>
       <c r="K7" t="n">
-        <v>0.396540192224612</v>
+        <v>0.396397500500417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.673076664181392</v>
+        <v>0.675626482239489</v>
       </c>
       <c r="M7" t="n">
-        <v>0.58245381128998</v>
+        <v>0.583598508969987</v>
       </c>
     </row>
     <row r="8">
@@ -695,40 +695,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.431239978596012</v>
+        <v>0.429455777564688</v>
       </c>
       <c r="C8" t="n">
-        <v>0.402407038168094</v>
+        <v>0.399938028884069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.437244089313782</v>
+        <v>0.444355939422213</v>
       </c>
       <c r="E8" t="n">
-        <v>0.431491692867765</v>
+        <v>0.413791210382809</v>
       </c>
       <c r="F8" t="n">
-        <v>0.346666410324087</v>
+        <v>0.347683813345704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.409284709305281</v>
+        <v>0.423972329239059</v>
       </c>
       <c r="H8" t="n">
-        <v>0.358241310645866</v>
+        <v>0.354534285584268</v>
       </c>
       <c r="I8" t="n">
-        <v>0.404790381643791</v>
+        <v>0.400478141047647</v>
       </c>
       <c r="J8" t="n">
-        <v>0.441873182615463</v>
+        <v>0.434832711547606</v>
       </c>
       <c r="K8" t="n">
-        <v>0.59319073869808</v>
+        <v>0.592104616524749</v>
       </c>
       <c r="L8" t="n">
-        <v>0.326752007969194</v>
+        <v>0.324134427552624</v>
       </c>
       <c r="M8" t="n">
-        <v>0.409281991569508</v>
+        <v>0.408076772619088</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Preferred degree of redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Implied minimum income</t>
+    <t xml:space="preserve">Implied minimum income (in $/year)</t>
   </si>
   <si>
     <t xml:space="preserve">Implied transfer (in % of world income)</t>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">I want to skip this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has not touched the sliders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touched sliders and satisfied</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
         <v>2791.36080801827</v>
       </c>
       <c r="L5" t="n">
-        <v>3291.56572730893</v>
+        <v>3291.56572730894</v>
       </c>
       <c r="M5" t="n">
         <v>2789.12603881073</v>
@@ -729,6 +735,88 @@
       </c>
       <c r="M8" t="n">
         <v>0.408076772619088</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.408374634826883</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.388588909468523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.399590058385227</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.384091647511391</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.410195834228784</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.302872499149178</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.371813108427663</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.437136028711529</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.303667681206425</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.475448989690047</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.388366284732463</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.406177169426307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.398118456901027</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.410488474534835</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.369081820440341</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.430038380653647</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.410781068299679</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.459008243270367</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.427013225872613</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.380331129442371</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.455290253425317</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.279967106328976</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.442866209980246</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.426810711448192</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -449,10 +452,13 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>47.3738987802139</v>
@@ -484,16 +490,17 @@
       <c r="K2" t="n">
         <v>46.7817073785458</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2"/>
+      <c r="M2" t="n">
         <v>49.8918139075144</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>46.7542391167642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>17.7284309346652</v>
@@ -525,16 +532,17 @@
       <c r="K3" t="n">
         <v>17.7384550005227</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3"/>
+      <c r="M3" t="n">
         <v>17.4538497656465</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>17.8088827749863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>4.66215828721021</v>
@@ -558,7 +566,7 @@
         <v>5.02493311213579</v>
       </c>
       <c r="I4" t="n">
-        <v>4.77084250692855</v>
+        <v>4.77084250692854</v>
       </c>
       <c r="J4" t="n">
         <v>4.42395634859103</v>
@@ -566,16 +574,17 @@
       <c r="K4" t="n">
         <v>4.54104222019968</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.98006182286059</v>
-      </c>
+      <c r="L4"/>
       <c r="M4" t="n">
+        <v>4.98006182286058</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.50342546995902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>2904.13174396868</v>
@@ -607,16 +616,17 @@
       <c r="K5" t="n">
         <v>2791.36080801827</v>
       </c>
-      <c r="L5" t="n">
-        <v>3291.56572730894</v>
-      </c>
+      <c r="L5"/>
       <c r="M5" t="n">
+        <v>3291.56572730893</v>
+      </c>
+      <c r="N5" t="n">
         <v>2789.12603881073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>5.11274339194611</v>
@@ -646,18 +656,19 @@
         <v>4.66029346746541</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6584932524887</v>
-      </c>
-      <c r="L6" t="n">
+        <v>4.65849325248871</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n">
         <v>5.91408224230056</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>4.89938812724382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.557747404615879</v>
@@ -666,7 +677,7 @@
         <v>0.581924165984681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528351073871356</v>
+        <v>0.528351073871357</v>
       </c>
       <c r="E7" t="n">
         <v>0.568251340340844</v>
@@ -689,16 +700,17 @@
       <c r="K7" t="n">
         <v>0.396397500500417</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7"/>
+      <c r="M7" t="n">
         <v>0.675626482239489</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.583598508969987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.429455777564688</v>
@@ -730,19 +742,20 @@
       <c r="K8" t="n">
         <v>0.592104616524749</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8"/>
+      <c r="M8" t="n">
         <v>0.324134427552624</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.408076772619088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.408374634826883</v>
+        <v>0.351148245570972</v>
       </c>
       <c r="C9" t="n">
         <v>0.388588909468523</v>
@@ -772,15 +785,18 @@
         <v>0.475448989690047</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.388366284732463</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.406177169426307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.398118456901027</v>
@@ -812,10 +828,11 @@
       <c r="K10" t="n">
         <v>0.279967106328976</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10"/>
+      <c r="M10" t="n">
         <v>0.442866209980246</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.426810711448192</v>
       </c>
     </row>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>47.3738987802139</v>
+        <v>47.3758915439561</v>
       </c>
       <c r="C2" t="n">
         <v>47.9271661362879</v>
@@ -488,14 +488,14 @@
         <v>44.7857599076557</v>
       </c>
       <c r="K2" t="n">
-        <v>46.7817073785458</v>
+        <v>46.7829418487092</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
         <v>49.8918139075144</v>
       </c>
       <c r="N2" t="n">
-        <v>46.7542391167642</v>
+        <v>46.7614395656938</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7284309346652</v>
+        <v>17.727547636372</v>
       </c>
       <c r="C3" t="n">
         <v>17.6757157738403</v>
@@ -530,14 +530,14 @@
         <v>18.3851242687856</v>
       </c>
       <c r="K3" t="n">
-        <v>17.7384550005227</v>
+        <v>17.7374744009919</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
         <v>17.4538497656465</v>
       </c>
       <c r="N3" t="n">
-        <v>17.8088827749863</v>
+        <v>17.8066357625234</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>4.66215828721021</v>
+        <v>4.66246711093616</v>
       </c>
       <c r="C4" t="n">
         <v>4.81863675290261</v>
@@ -572,14 +572,14 @@
         <v>4.42395634859103</v>
       </c>
       <c r="K4" t="n">
-        <v>4.54104222019968</v>
+        <v>4.54122555886245</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>4.98006182286058</v>
+        <v>4.98006182286059</v>
       </c>
       <c r="N4" t="n">
-        <v>4.50342546995902</v>
+        <v>4.50479434655862</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>2904.13174396868</v>
+        <v>2904.37011684753</v>
       </c>
       <c r="C5" t="n">
         <v>3013.99648441846</v>
@@ -614,14 +614,14 @@
         <v>2660.91125126678</v>
       </c>
       <c r="K5" t="n">
-        <v>2791.36080801827</v>
+        <v>2791.49348527449</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>3291.56572730893</v>
+        <v>3291.56572730894</v>
       </c>
       <c r="N5" t="n">
-        <v>2789.12603881073</v>
+        <v>2790.15624910416</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5.11274339194611</v>
+        <v>5.11353961710558</v>
       </c>
       <c r="C6" t="n">
         <v>5.39514273808263</v>
@@ -656,14 +656,14 @@
         <v>4.66029346746541</v>
       </c>
       <c r="K6" t="n">
-        <v>4.65849325248871</v>
+        <v>4.65867992158079</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
         <v>5.91408224230056</v>
       </c>
       <c r="N6" t="n">
-        <v>4.89938812724382</v>
+        <v>4.90224996427908</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.557747404615879</v>
+        <v>0.557752965581924</v>
       </c>
       <c r="C7" t="n">
         <v>0.581924165984681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528351073871357</v>
+        <v>0.528351073871356</v>
       </c>
       <c r="E7" t="n">
         <v>0.568251340340844</v>
@@ -698,14 +698,14 @@
         <v>0.541107445542664</v>
       </c>
       <c r="K7" t="n">
-        <v>0.396397500500417</v>
+        <v>0.396376822894605</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
         <v>0.675626482239489</v>
       </c>
       <c r="N7" t="n">
-        <v>0.583598508969987</v>
+        <v>0.583518233303355</v>
       </c>
     </row>
     <row r="8">
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.429455777564688</v>
+        <v>0.429454246552531</v>
       </c>
       <c r="C8" t="n">
         <v>0.399938028884069</v>
@@ -740,14 +740,14 @@
         <v>0.434832711547606</v>
       </c>
       <c r="K8" t="n">
-        <v>0.592104616524749</v>
+        <v>0.592127159062159</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
         <v>0.324134427552624</v>
       </c>
       <c r="N8" t="n">
-        <v>0.408076772619088</v>
+        <v>0.408149050854568</v>
       </c>
     </row>
     <row r="9">
@@ -755,7 +755,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.351148245570972</v>
+        <v>0.351197281372668</v>
       </c>
       <c r="C9" t="n">
         <v>0.388588909468523</v>
@@ -782,7 +782,7 @@
         <v>0.303667681206425</v>
       </c>
       <c r="K9" t="n">
-        <v>0.475448989690047</v>
+        <v>0.475466970270242</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0.388366284732463</v>
       </c>
       <c r="N9" t="n">
-        <v>0.406177169426307</v>
+        <v>0.406100171031648</v>
       </c>
     </row>
     <row r="10">
@@ -799,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.398118456901027</v>
+        <v>0.398173738402363</v>
       </c>
       <c r="C10" t="n">
         <v>0.410488474534835</v>
@@ -826,14 +826,14 @@
         <v>0.455290253425317</v>
       </c>
       <c r="K10" t="n">
-        <v>0.279967106328976</v>
+        <v>0.279970941185883</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
         <v>0.442866209980246</v>
       </c>
       <c r="N10" t="n">
-        <v>0.426810711448192</v>
+        <v>0.426839676660333</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -65,10 +62,13 @@
     <t xml:space="preserve">Preferred degree of redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Implied minimum income (in $/year)</t>
+    <t xml:space="preserve">Implied minimum income (in PPP $/month)</t>
   </si>
   <si>
     <t xml:space="preserve">Implied transfer (in % of world income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loses in own custom redistribution</t>
   </si>
   <si>
     <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
@@ -452,13 +452,10 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>47.3758915439561</v>
@@ -490,17 +487,16 @@
       <c r="K2" t="n">
         <v>46.7829418487092</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="n">
+        <v>49.8918139075144</v>
+      </c>
       <c r="M2" t="n">
-        <v>49.8918139075144</v>
-      </c>
-      <c r="N2" t="n">
         <v>46.7614395656938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>17.727547636372</v>
@@ -532,17 +528,16 @@
       <c r="K3" t="n">
         <v>17.7374744009919</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="n">
+        <v>17.4538497656465</v>
+      </c>
       <c r="M3" t="n">
-        <v>17.4538497656465</v>
-      </c>
-      <c r="N3" t="n">
         <v>17.8066357625234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>4.66246711093616</v>
@@ -574,59 +569,57 @@
       <c r="K4" t="n">
         <v>4.54122555886245</v>
       </c>
-      <c r="L4"/>
+      <c r="L4" t="n">
+        <v>4.98006182286059</v>
+      </c>
       <c r="M4" t="n">
-        <v>4.98006182286059</v>
-      </c>
-      <c r="N4" t="n">
         <v>4.50479434655862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2904.37011684753</v>
+        <v>243.859856665704</v>
       </c>
       <c r="C5" t="n">
-        <v>3013.99648441846</v>
+        <v>254.768824485587</v>
       </c>
       <c r="D5" t="n">
-        <v>2856.27218254474</v>
+        <v>238.022681878728</v>
       </c>
       <c r="E5" t="n">
-        <v>2866.37646927345</v>
+        <v>245.249556879022</v>
       </c>
       <c r="F5" t="n">
-        <v>3268.67955624125</v>
+        <v>272.389963020104</v>
       </c>
       <c r="G5" t="n">
-        <v>3174.89746134272</v>
+        <v>264.574788445226</v>
       </c>
       <c r="H5" t="n">
-        <v>3168.21066966258</v>
+        <v>266.427973030593</v>
       </c>
       <c r="I5" t="n">
-        <v>2966.48272925279</v>
+        <v>257.650904387216</v>
       </c>
       <c r="J5" t="n">
-        <v>2660.91125126678</v>
+        <v>221.742604272232</v>
       </c>
       <c r="K5" t="n">
-        <v>2791.49348527449</v>
-      </c>
-      <c r="L5"/>
+        <v>232.624457106208</v>
+      </c>
+      <c r="L5" t="n">
+        <v>274.297143942411</v>
+      </c>
       <c r="M5" t="n">
-        <v>3291.56572730894</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2790.15624910416</v>
+        <v>233.20799640273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>5.11353961710558</v>
@@ -658,182 +651,216 @@
       <c r="K6" t="n">
         <v>4.65867992158079</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="n">
+        <v>5.91408224230056</v>
+      </c>
       <c r="M6" t="n">
-        <v>5.91408224230056</v>
-      </c>
-      <c r="N6" t="n">
         <v>4.90224996427908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.557752965581924</v>
+        <v>46.3382315026307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.581924165984681</v>
+        <v>41.1108627350503</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528351073871356</v>
+        <v>42.4818158444523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.568251340340844</v>
+        <v>46.7862116337415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.633294813075585</v>
+        <v>35.2272469755116</v>
       </c>
       <c r="G7" t="n">
-        <v>0.56683869430922</v>
+        <v>11.3957809941361</v>
       </c>
       <c r="H7" t="n">
-        <v>0.627561397537583</v>
+        <v>35.775572282328</v>
       </c>
       <c r="I7" t="n">
-        <v>0.586565171659253</v>
+        <v>54.8110495715088</v>
       </c>
       <c r="J7" t="n">
-        <v>0.541107445542664</v>
+        <v>73.585937339573</v>
       </c>
       <c r="K7" t="n">
-        <v>0.396376822894605</v>
-      </c>
-      <c r="L7"/>
+        <v>36.8486996018008</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40.5295705557186</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.675626482239489</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.583518233303355</v>
+        <v>56.5334546323181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.429454246552531</v>
+        <v>55.7752965581924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399938028884069</v>
+        <v>58.1924165984681</v>
       </c>
       <c r="D8" t="n">
-        <v>0.444355939422213</v>
+        <v>52.8351073871357</v>
       </c>
       <c r="E8" t="n">
-        <v>0.413791210382809</v>
+        <v>56.8251340340844</v>
       </c>
       <c r="F8" t="n">
-        <v>0.347683813345704</v>
+        <v>63.3294813075585</v>
       </c>
       <c r="G8" t="n">
-        <v>0.423972329239059</v>
+        <v>56.683869430922</v>
       </c>
       <c r="H8" t="n">
-        <v>0.354534285584268</v>
+        <v>62.7561397537583</v>
       </c>
       <c r="I8" t="n">
-        <v>0.400478141047647</v>
+        <v>58.6565171659253</v>
       </c>
       <c r="J8" t="n">
-        <v>0.434832711547606</v>
+        <v>54.1107445542664</v>
       </c>
       <c r="K8" t="n">
-        <v>0.592127159062159</v>
-      </c>
-      <c r="L8"/>
+        <v>39.6376822894605</v>
+      </c>
+      <c r="L8" t="n">
+        <v>67.5626482239489</v>
+      </c>
       <c r="M8" t="n">
-        <v>0.324134427552624</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.408149050854568</v>
+        <v>58.3518233303355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.351197281372668</v>
+        <v>42.9454246552531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388588909468523</v>
+        <v>39.9938028884069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.399590058385227</v>
+        <v>44.4355939422213</v>
       </c>
       <c r="E9" t="n">
-        <v>0.384091647511391</v>
+        <v>41.3791210382809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.410195834228784</v>
+        <v>34.7683813345704</v>
       </c>
       <c r="G9" t="n">
-        <v>0.302872499149178</v>
+        <v>42.3972329239059</v>
       </c>
       <c r="H9" t="n">
-        <v>0.371813108427663</v>
+        <v>35.4534285584268</v>
       </c>
       <c r="I9" t="n">
-        <v>0.437136028711529</v>
+        <v>40.0478141047647</v>
       </c>
       <c r="J9" t="n">
-        <v>0.303667681206425</v>
+        <v>43.4832711547606</v>
       </c>
       <c r="K9" t="n">
-        <v>0.475466970270242</v>
+        <v>59.2127159062159</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>32.4134427552624</v>
       </c>
       <c r="M9" t="n">
-        <v>0.388366284732463</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.406100171031648</v>
+        <v>40.8149050854568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40.8344600085981</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38.8588909468523</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39.9590058385227</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.4091647511391</v>
+      </c>
+      <c r="F10" t="n">
+        <v>41.0195834228784</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.2872499149178</v>
+      </c>
+      <c r="H10" t="n">
+        <v>37.1813108427663</v>
+      </c>
+      <c r="I10" t="n">
+        <v>43.7136028711529</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30.3667681206425</v>
+      </c>
+      <c r="K10" t="n">
+        <v>47.5466970270242</v>
+      </c>
+      <c r="L10" t="n">
+        <v>38.8366284732463</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40.6100171031648</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.398173738402363</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.410488474534835</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.369081820440341</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.430038380653647</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.410781068299679</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.459008243270367</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.427013225872613</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.380331129442371</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.455290253425317</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.279970941185883</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10" t="n">
-        <v>0.442866209980246</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.426839676660333</v>
+      <c r="B11" t="n">
+        <v>39.8173738402363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.0488474534835</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36.9081820440341</v>
+      </c>
+      <c r="E11" t="n">
+        <v>43.0038380653647</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.0781068299679</v>
+      </c>
+      <c r="G11" t="n">
+        <v>45.9008243270367</v>
+      </c>
+      <c r="H11" t="n">
+        <v>42.7013225872613</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38.0331129442371</v>
+      </c>
+      <c r="J11" t="n">
+        <v>45.5290253425317</v>
+      </c>
+      <c r="K11" t="n">
+        <v>27.9970941185883</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44.2866209980246</v>
+      </c>
+      <c r="M11" t="n">
+        <v>42.6839676660333</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/custom_redistr_all_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_all_mean.xlsx
@@ -71,10 +71,10 @@
     <t xml:space="preserve">Loses in own custom redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to skip this question.</t>
+    <t xml:space="preserve">custom_redistr_satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom_redistr_skip</t>
   </si>
   <si>
     <t xml:space="preserve">Has not touched the sliders</t>
@@ -564,7 +564,7 @@
         <v>4.77084250692854</v>
       </c>
       <c r="J4" t="n">
-        <v>4.42395634859103</v>
+        <v>4.42395634859102</v>
       </c>
       <c r="K4" t="n">
         <v>4.54122555886245</v>
@@ -581,16 +581,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>243.859856665704</v>
+        <v>242.045500729898</v>
       </c>
       <c r="C5" t="n">
-        <v>254.768824485587</v>
+        <v>251.061082082337</v>
       </c>
       <c r="D5" t="n">
         <v>238.022681878728</v>
       </c>
       <c r="E5" t="n">
-        <v>245.249556879022</v>
+        <v>238.646978806938</v>
       </c>
       <c r="F5" t="n">
         <v>272.389963020104</v>
@@ -599,22 +599,22 @@
         <v>264.574788445226</v>
       </c>
       <c r="H5" t="n">
-        <v>266.427973030593</v>
+        <v>264.188486368283</v>
       </c>
       <c r="I5" t="n">
-        <v>257.650904387216</v>
+        <v>246.596884457216</v>
       </c>
       <c r="J5" t="n">
-        <v>221.742604272232</v>
+        <v>222.74051731422</v>
       </c>
       <c r="K5" t="n">
-        <v>232.624457106208</v>
+        <v>232.973437908526</v>
       </c>
       <c r="L5" t="n">
         <v>274.297143942411</v>
       </c>
       <c r="M5" t="n">
-        <v>233.20799640273</v>
+        <v>232.533807970671</v>
       </c>
     </row>
     <row r="6">
@@ -622,16 +622,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5.11353961710558</v>
+        <v>5.11340902370102</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39514273808263</v>
+        <v>5.39220439864498</v>
       </c>
       <c r="D6" t="n">
         <v>5.0147638962913</v>
       </c>
       <c r="E6" t="n">
-        <v>5.10885958685904</v>
+        <v>5.10123556039544</v>
       </c>
       <c r="F6" t="n">
         <v>5.93329114050014</v>
@@ -640,22 +640,22 @@
         <v>5.86127261939289</v>
       </c>
       <c r="H6" t="n">
-        <v>5.65083244023413</v>
+        <v>5.65424149834322</v>
       </c>
       <c r="I6" t="n">
-        <v>5.28587527204688</v>
+        <v>5.27280465978773</v>
       </c>
       <c r="J6" t="n">
-        <v>4.66029346746541</v>
+        <v>4.68126628703672</v>
       </c>
       <c r="K6" t="n">
-        <v>4.65867992158079</v>
+        <v>4.6656688249704</v>
       </c>
       <c r="L6" t="n">
         <v>5.91408224230056</v>
       </c>
       <c r="M6" t="n">
-        <v>4.90224996427908</v>
+        <v>4.90243297521537</v>
       </c>
     </row>
     <row r="7">
@@ -663,16 +663,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>46.3382315026307</v>
+        <v>46.3725250660407</v>
       </c>
       <c r="C7" t="n">
-        <v>41.1108627350503</v>
+        <v>41.1467443227155</v>
       </c>
       <c r="D7" t="n">
         <v>42.4818158444523</v>
       </c>
       <c r="E7" t="n">
-        <v>46.7862116337415</v>
+        <v>46.8559069700612</v>
       </c>
       <c r="F7" t="n">
         <v>35.2272469755116</v>
@@ -681,22 +681,22 @@
         <v>11.3957809941361</v>
       </c>
       <c r="H7" t="n">
-        <v>35.775572282328</v>
+        <v>35.8269923725672</v>
       </c>
       <c r="I7" t="n">
-        <v>54.8110495715088</v>
+        <v>54.8866021415646</v>
       </c>
       <c r="J7" t="n">
-        <v>73.585937339573</v>
+        <v>73.9170977262703</v>
       </c>
       <c r="K7" t="n">
-        <v>36.8486996018008</v>
+        <v>36.9039796394692</v>
       </c>
       <c r="L7" t="n">
         <v>40.5295705557186</v>
       </c>
       <c r="M7" t="n">
-        <v>56.5334546323181</v>
+        <v>56.5535147336437</v>
       </c>
     </row>
     <row r="8">
@@ -719,7 +719,7 @@
         <v>63.3294813075585</v>
       </c>
       <c r="G8" t="n">
-        <v>56.683869430922</v>
+        <v>56.6838694309219</v>
       </c>
       <c r="H8" t="n">
         <v>62.7561397537583</v>
@@ -757,7 +757,7 @@
         <v>41.3791210382809</v>
       </c>
       <c r="F9" t="n">
-        <v>34.7683813345704</v>
+        <v>34.7683813345703</v>
       </c>
       <c r="G9" t="n">
         <v>42.3972329239059</v>
@@ -789,7 +789,7 @@
         <v>40.8344600085981</v>
       </c>
       <c r="C10" t="n">
-        <v>38.8588909468523</v>
+        <v>38.8588909468524</v>
       </c>
       <c r="D10" t="n">
         <v>39.9590058385227</v>
@@ -801,7 +801,7 @@
         <v>41.0195834228784</v>
       </c>
       <c r="G10" t="n">
-        <v>30.2872499149178</v>
+        <v>30.2872499149177</v>
       </c>
       <c r="H10" t="n">
         <v>37.1813108427663</v>
